--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://npluk-my.sharepoint.com/personal/james_edwards_npl_co_uk/Documents/Documents/CAD/Shiitake Life Support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93ED6D48-6C45-4EA7-9344-3347BCEAFEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{93ED6D48-6C45-4EA7-9344-3347BCEAFEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98649822-96EE-4B94-85CD-960279668085}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0175BE9B-09DB-4935-9617-04C8C213D07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -47,12 +47,12 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>Qty</t>
+  </si>
+  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
     <t>5V PSU</t>
   </si>
   <si>
@@ -62,12 +62,12 @@
     <t>25W 5V 5A Single Output Switching Power Supply - Mean Well | CPC</t>
   </si>
   <si>
+    <t>Rotary encoder</t>
+  </si>
+  <si>
     <t>docs.arduino.cc/hardware/modulino-knob/</t>
   </si>
   <si>
-    <t>Rotary encoder</t>
-  </si>
-  <si>
     <t>Arduino</t>
   </si>
   <si>
@@ -77,12 +77,12 @@
     <t>Relay</t>
   </si>
   <si>
+    <t>Single relay module</t>
+  </si>
+  <si>
     <t>VooGenzek 5 PCS 5V 1-Channel Relay Module Board Shield High Level Trigger for PIC AVR DSP ARM Compatible with Arduino : Amazon.co.uk: Business, Industry &amp; Science</t>
   </si>
   <si>
-    <t>Single relay module</t>
-  </si>
-  <si>
     <t>Motor driver</t>
   </si>
   <si>
@@ -90,13 +90,52 @@
   </si>
   <si>
     <t>Hailege BTS7960 43A Dual H-Bridge Stepper Motor Drive Current Limit Control Semiconductor Refrigeration PWM for Smart Car Motor Drive : Amazon.co.uk: Business, Industry &amp; Science</t>
+  </si>
+  <si>
+    <t>https://www.handsontec.com/dataspecs/module/BTS7960%20Motor%20Driver.pdf</t>
+  </si>
+  <si>
+    <t>https://electropeak.com/learn/interfacing-bts7960-43a-high-power-motor-driver-module-with-arduino/</t>
+  </si>
+  <si>
+    <t>Disputed</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Rainorning-Magnetic-Brushless-Measurement-Direction/dp/B0F92BXSPD/ref=sr_1_68?crid=3QI73SY7CVL52&amp;dib=eyJ2IjoiMSJ9.mHUl55SvZKvVqR7qxUKK1SmiXumphoKgZLdmBBgajI2jbGw3aPSLWEgNmBJlHdcW1lrAFa7uPavi3LdkS3hJcJibR0NFKK4ll4DR6srC4DMri3M4nXdZLL6LF-hi7rK2dJtMFEuqWUMNNgHDLMXUjiqGb33fVrxYseSl4uI3Oal6TjAiarwzgMCuHbrV4kqe-GN0D_Y6DogHXC4k4CK54rSt2_srAprBqpJ8X7k_dH2ZAywqcCHjE9o_zqG0QIun.K2_RIXSaDcVufFPSOK-DkjpUbGwnhLRlmX5apXwqWK4&amp;dib_tag=se&amp;keywords=rotary+encoder&amp;qid=1758332976&amp;s=industrial&amp;sprefix=rotary+encoder%2Cindustrial%2C64&amp;sr=1-68&amp;xpid=0LzyF44mzf7IG</t>
+  </si>
+  <si>
+    <t>Rock switch</t>
+  </si>
+  <si>
+    <t>switch for power</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/rocker-switches/8074286?gb=s</t>
+  </si>
+  <si>
+    <t>Current sensor</t>
+  </si>
+  <si>
+    <t>5A ACS712 Current Sensor</t>
+  </si>
+  <si>
+    <t>https://amzn.eu/d/iJ9XhAQ</t>
+  </si>
+  <si>
+    <t>10k Pot</t>
+  </si>
+  <si>
+    <t>LED dimmer</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/potentiometers/8427002?gb=s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,9 +179,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,20 +528,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3D4A7C-6DC5-428F-8E7D-79698D90EF4B}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="55.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -496,13 +552,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>1</v>
       </c>
@@ -519,21 +575,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>3</v>
       </c>
@@ -547,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>4</v>
       </c>
@@ -555,16 +611,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:8" ht="15">
       <c r="B7">
         <v>5</v>
       </c>
@@ -579,6 +635,80 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="29.25">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="29.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -587,6 +717,12 @@
     <hyperlink ref="F4" r:id="rId2" display="https://docs.arduino.cc/hardware/modulino-knob/" xr:uid="{54179313-22A1-4822-B180-5E480D7F8040}"/>
     <hyperlink ref="F6" r:id="rId3" display="https://www.amazon.co.uk/VooGenzek-1-Channel-Trigger-Compatible-Arduino/dp/B09Q58X8M2?crid=2OATVXEV1P5V3&amp;dib=eyJ2IjoiMSJ9.201caPRGfh7pqWliyi7c3xXatAsiQy6n2PpLIUDUfR2HzL8WMv1Be13c7tXxvysCOaMgF5z65rl3zwma2aWBtdBMP-74lwVYO2dihLIsPgOMOSZLo07n11fJAahXG0sgJM7mB0NSGLnruMne151DXDkv4TCVy9ncGVoqyzvpbmeVRtQk7P2xzgdH6IKc6t4NrKsToS7lP3nlXCUf9cC-QIBIYIYHygmY_MUPiZz0xxlKK1U4GOn5Q64o1sqqBAKD3974NUlt0joZqXpP5Utx2b8bo0kd4y5_y8CZmU6gZ5s.e-6T_2sjvr193D69khpjzwecBTGFYFBFQ097dU_9pcs&amp;dib_tag=se&amp;keywords=4%2Brelay%2Bmodule&amp;qid=1758145897&amp;sprefix=4%2Brelay%2Bmodule%2Caps%2C93&amp;sr=8-26&amp;th=1" xr:uid="{539E5DFE-96BE-4CA1-9EC4-BAEC3BF1D80E}"/>
     <hyperlink ref="F7" r:id="rId4" display="https://www.amazon.co.uk/BTS7960-H-Bridge-Stepper-Semiconductor-Refrigeration/dp/B07Y4TTK3Z?crid=1NH4MCDWHYA19&amp;dib=eyJ2IjoiMSJ9.QMuzAG_0ebf_1nBcVI8vdJNTnGW0UVCyHvAeF51in8eHsMuFjQ8mUzXX6o8XISpyFcPbhLZhv3KaMfJB6j2Z03yYEPz4oAtASvre47bOs9Se7rS5lgi1-UO9igJ7eHmFt6Np7p-Hj7ddGpZQLNP0kurDwped9SW7jgVaVnOHL5_CvAoG3S_-u8LVPnrDU3GUXGxt_Y5ea7fQ28DuTbZbALsehj5h4rcWlT1BoJFUX7Q.maRCkj9GdPr_5pVSnwyb4OWRnLLkK7Arnddpf4OUKA4&amp;dib_tag=se&amp;keywords=h+bridge&amp;qid=1757938163&amp;sprefix=h+bridg%2Caps%2C95&amp;sr=8-22" xr:uid="{17228B90-EB7A-4A86-9962-1D2173FD5C16}"/>
+    <hyperlink ref="F8" r:id="rId5" display="https://www.amazon.co.uk/Rainorning-Magnetic-Brushless-Measurement-Direction/dp/B0F92BXSPD/ref=sr_1_68?crid=3QI73SY7CVL52&amp;dib=eyJ2IjoiMSJ9.mHUl55SvZKvVqR7qxUKK1SmiXumphoKgZLdmBBgajI2jbGw3aPSLWEgNmBJlHdcW1lrAFa7uPavi3LdkS3hJcJibR0NFKK4ll4DR6srC4DMri3M4nXdZLL6LF-hi7rK2dJtMFEuqWUMNNgHDLMXUjiqGb33fVrxYseSl4uI3Oal6TjAiarwzgMCuHbrV4kqe-GN0D_Y6DogHXC4k4CK54rSt2_srAprBqpJ8X7k_dH2ZAywqcCHjE9o_zqG0QIun.K2_RIXSaDcVufFPSOK-DkjpUbGwnhLRlmX5apXwqWK4&amp;dib_tag=se&amp;keywords=rotary+encoder&amp;qid=1758332976&amp;s=industrial&amp;sprefix=rotary+encoder%2Cindustrial%2C64&amp;sr=1-68&amp;xpid=0LzyF44mzf7IG" xr:uid="{297874A6-599E-4744-B686-87C66AE62CD8}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{CC32F757-145C-4106-BBA5-0899543C1D14}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{63038B85-EC3D-437B-BD02-80100EAEE13D}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{FDE6AEF3-69D3-416F-A56A-1007D8E1F2EA}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{33A00EBA-6D17-45EC-B033-B94BB4B69474}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{1717598A-4686-441A-9EF8-DAB2430DA4C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
